--- a/medicine/Handicap/Winifred_Holt/Winifred_Holt.xlsx
+++ b/medicine/Handicap/Winifred_Holt/Winifred_Holt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Winifred Holt, née à New York le 17 novembre 1870 et morte à Pittsfield le 14 juin 1945, est une sculptrice américaine et travailleuse sociale. Elle est la fondatrice de la New York Association for Blind.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Winifred Holt est la fille de l'éditeur Henry Holt. Elle étudie à la Brearley School de New York. Soutenue par son père, elle œuvra dans le quartier pauvre de Bowery en tant que travailleuse sociale pendant plusieurs années. Elle commence à prendre des leçons de sculpture au cours d'un voyage en Italie en 1894. Elle y retourne en 1901 accompagnée de sa sœur Edith. Les deux femmes assistent alors à un concert en compagnie d'un groupe d'étudiants aveugles, absorbés par la musique. En 1903, les sœurs Holt fondent le Ticket Bureau for the Blind: Winifred consacrera le reste de sa vie à l'aide aux personnes aveugles. La New York Association for the Blind est fondée à la demeure des Holt en 1905.[réf. nécessaire] L'organisation est toujours en activité sous le nom de Lighthouse International[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Winifred Holt est la fille de l'éditeur Henry Holt. Elle étudie à la Brearley School de New York. Soutenue par son père, elle œuvra dans le quartier pauvre de Bowery en tant que travailleuse sociale pendant plusieurs années. Elle commence à prendre des leçons de sculpture au cours d'un voyage en Italie en 1894. Elle y retourne en 1901 accompagnée de sa sœur Edith. Les deux femmes assistent alors à un concert en compagnie d'un groupe d'étudiants aveugles, absorbés par la musique. En 1903, les sœurs Holt fondent le Ticket Bureau for the Blind: Winifred consacrera le reste de sa vie à l'aide aux personnes aveugles. La New York Association for the Blind est fondée à la demeure des Holt en 1905.[réf. nécessaire] L'organisation est toujours en activité sous le nom de Lighthouse International.
 </t>
         </is>
       </c>
